--- a/ML_Unit3/excel/Numerical Examples.xlsx
+++ b/ML_Unit3/excel/Numerical Examples.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93c4ddfd9869a0cf/consulting/dono/idma_pt_public/ML_Unit3/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B011407-EE5C-1146-A307-EC39755B02C4}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" activeTab="1" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier" sheetId="3" r:id="rId1"/>
     <sheet name="Regression" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -182,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -221,6 +227,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +490,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184474"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -574,7 +581,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -754,8 +761,8 @@
       <xdr:rowOff>870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184474"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -845,7 +852,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1195,8 +1202,8 @@
       <xdr:rowOff>165389</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184859"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -1286,7 +1293,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -1351,8 +1358,8 @@
       <xdr:rowOff>187900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184859"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -1454,7 +1461,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -1522,8 +1529,8 @@
       <xdr:rowOff>2591</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184859"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -1625,7 +1632,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -1693,8 +1700,8 @@
       <xdr:rowOff>16443</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184859"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -1796,7 +1803,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -1864,8 +1871,8 @@
       <xdr:rowOff>135950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1906484" cy="642484"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -2041,7 +2048,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -2518,8 +2525,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1231876" cy="162702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2609,7 +2616,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2674,8 +2681,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184474"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -2781,7 +2788,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -2909,8 +2916,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272126" cy="184474"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -3000,7 +3007,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -3121,8 +3128,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355418" cy="209550"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -3227,7 +3234,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -3412,8 +3419,8 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="330603" cy="171450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3506,7 +3513,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3629,8 +3636,8 @@
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="353751" cy="209550"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3735,7 +3742,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3806,8 +3813,8 @@
       <xdr:rowOff>178186</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="441211" cy="177806"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -3903,7 +3910,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -3968,8 +3975,8 @@
       <xdr:rowOff>159040</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="441211" cy="177997"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -4065,7 +4072,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -4130,8 +4137,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1503681" cy="177997"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -4311,7 +4318,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -4670,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BF29-27DE-A84E-AD91-D7CC169E9269}">
   <dimension ref="B24:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="M27" zoomScale="200" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4761,11 +4768,11 @@
       </c>
       <c r="F29" s="13">
         <f>T30</f>
-        <v>0.5</v>
+        <v>0.62245933120185448</v>
       </c>
       <c r="G29" s="13">
         <f>T41</f>
-        <v>0.5</v>
+        <v>0.37754066879814541</v>
       </c>
       <c r="O29" s="3"/>
       <c r="S29" s="3">
@@ -4796,7 +4803,7 @@
       <c r="G30" s="13"/>
       <c r="T30" s="3">
         <f>T29/SUM(T29,T40)</f>
-        <v>0.5</v>
+        <v>0.62245933120185448</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>15</v>
@@ -4877,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="T36" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
@@ -4894,7 +4901,7 @@
       </c>
       <c r="T39" s="12">
         <f>T36+S38*P26+S40*P41</f>
-        <v>2.9999665971563041</v>
+        <v>2.4999665971563041</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
@@ -4907,7 +4914,7 @@
       </c>
       <c r="T40" s="4">
         <f>EXP(T39)</f>
-        <v>20.084866020342368</v>
+        <v>12.182087037558111</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
@@ -4920,7 +4927,7 @@
       </c>
       <c r="T41" s="3">
         <f>T40/SUM(T40,T29)</f>
-        <v>0.5</v>
+        <v>0.37754066879814541</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
@@ -4943,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F3301-0575-2B4D-9771-D8CCAF368F1A}">
   <dimension ref="A3:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4976,10 +4983,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="16">
         <v>30</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="16">
         <v>90</v>
       </c>
       <c r="C4" s="1">
@@ -4990,8 +4997,8 @@
         <v>17.250000100000001</v>
       </c>
       <c r="E4" s="10">
-        <f>(C4-D4)</f>
-        <v>7.7499998999999988</v>
+        <f>(C4-D4)^2</f>
+        <v>60.062498449999993</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>2</v>

--- a/ML_Unit3/excel/Numerical Examples.xlsx
+++ b/ML_Unit3/excel/Numerical Examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93c4ddfd9869a0cf/consulting/dono/idma_pt_public/ML_Unit3/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B011407-EE5C-1146-A307-EC39755B02C4}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40969DC-51F3-5C49-85B6-A438F3EE354D}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" activeTab="1" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier" sheetId="3" r:id="rId1"/>
@@ -4677,7 +4677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BF29-27DE-A84E-AD91-D7CC169E9269}">
   <dimension ref="B24:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M27" zoomScale="200" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C14" zoomScale="160" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
@@ -4950,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F3301-0575-2B4D-9771-D8CCAF368F1A}">
   <dimension ref="A3:R19"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4994,17 +4994,17 @@
       </c>
       <c r="D4" s="10">
         <f>Q13</f>
-        <v>17.250000100000001</v>
+        <v>1665.8189172165858</v>
       </c>
       <c r="E4" s="10">
         <f>(C4-D4)^2</f>
-        <v>60.062498449999993</v>
+        <v>2692286.7190958089</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="4">
-        <v>-0.2100127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -5036,11 +5036,11 @@
         <v>15</v>
       </c>
       <c r="J6" s="4">
-        <v>5.6777870000000004</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9">
         <f>K4+J6*G9+J9*G15</f>
-        <v>474.89220829999999</v>
+        <v>367.76861099999996</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="4">
-        <v>6.2653559999999997</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -5104,8 +5104,8 @@
         <v>4.5064769</v>
       </c>
       <c r="Q12" s="2">
-        <f>Q10+P12*K7+P15*K19</f>
-        <v>17.250000100000001</v>
+        <f>Q10+P12*K6+P15*K19</f>
+        <v>1665.8189172165858</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>1</v>
@@ -5115,7 +5115,7 @@
       <c r="H13" s="3"/>
       <c r="Q13" s="2">
         <f>Q12</f>
-        <v>17.250000100000001</v>
+        <v>1665.8189172165858</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>3</v>

--- a/ML_Unit3/excel/Numerical Examples.xlsx
+++ b/ML_Unit3/excel/Numerical Examples.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93c4ddfd9869a0cf/consulting/dono/idma_pt_public/ML_Unit3/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40969DC-51F3-5C49-85B6-A438F3EE354D}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A701E0-2569-544F-A9CC-5454D0BA9017}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" activeTab="1" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier" sheetId="3" r:id="rId1"/>
-    <sheet name="Regression" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Regression" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>f(z)</t>
   </si>
@@ -105,6 +106,75 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>phi(x) cubic features?</t>
+  </si>
+  <si>
+    <t>(x1,x2,…xn)</t>
+  </si>
+  <si>
+    <t>First Degree</t>
+  </si>
+  <si>
+    <t>x1,x2,x3…xn</t>
+  </si>
+  <si>
+    <t>Second Degree</t>
+  </si>
+  <si>
+    <t>x1^2,x2^2…x1x2,x2x3…</t>
+  </si>
+  <si>
+    <t>Third degree</t>
+  </si>
+  <si>
+    <t>x1^3,x2^2,….x1x2x3,x2x3x4…</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n1+n2+n3</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>How?</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d&gt;n</t>
+  </si>
+  <si>
+    <t>It will reduce the number of columns in your data</t>
+  </si>
+  <si>
+    <t>Worse, as good as performing earlier</t>
+  </si>
+  <si>
+    <t>not (x1 AND x1)</t>
+  </si>
+  <si>
+    <t>not (x1 and x1)</t>
+  </si>
+  <si>
+    <t>not (x1)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -228,6 +298,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4677,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BF29-27DE-A84E-AD91-D7CC169E9269}">
   <dimension ref="B24:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="160" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView topLeftCell="H19" zoomScale="160" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4947,11 +5018,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D45BB5-BBA6-A544-B6CB-DB87F9E40CA7}">
+  <dimension ref="C1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="17">
+        <v>3</v>
+      </c>
+      <c r="M7" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F3301-0575-2B4D-9771-D8CCAF368F1A}">
   <dimension ref="A3:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="D1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4994,17 +5210,17 @@
       </c>
       <c r="D4" s="10">
         <f>Q13</f>
-        <v>1665.8189172165858</v>
+        <v>1674.8318710165856</v>
       </c>
       <c r="E4" s="10">
         <f>(C4-D4)^2</f>
-        <v>2692286.7190958089</v>
+        <v>2721945.2026220877</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -5040,7 +5256,7 @@
       </c>
       <c r="K6" s="9">
         <f>K4+J6*G9+J9*G15</f>
-        <v>367.76861099999996</v>
+        <v>369.76861099999996</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>1</v>
@@ -5105,7 +5321,7 @@
       </c>
       <c r="Q12" s="2">
         <f>Q10+P12*K6+P15*K19</f>
-        <v>1665.8189172165858</v>
+        <v>1674.8318710165856</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>1</v>
@@ -5115,7 +5331,7 @@
       <c r="H13" s="3"/>
       <c r="Q13" s="2">
         <f>Q12</f>
-        <v>1665.8189172165858</v>
+        <v>1674.8318710165856</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>3</v>
@@ -5178,7 +5394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7193503-4A9B-F944-90C9-CFAFBDB828F5}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/ML_Unit3/excel/Numerical Examples.xlsx
+++ b/ML_Unit3/excel/Numerical Examples.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93c4ddfd9869a0cf/consulting/dono/idma_pt_public/ML_Unit3/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A701E0-2569-544F-A9CC-5454D0BA9017}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{21447438-AD98-A246-9B8C-D65335E42304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DFB40A-B777-284D-BD3F-4A839508D7A3}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" activeTab="1" xr2:uid="{B8CF9BDF-FED4-BD4F-A90E-3C7984C95CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Regression" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Regression" sheetId="2" r:id="rId2"/>
+    <sheet name="Classification Table" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>f(z)</t>
   </si>
@@ -108,73 +107,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>phi(x) cubic features?</t>
+    <t>P_Late</t>
   </si>
   <si>
-    <t>(x1,x2,…xn)</t>
+    <t>P_Paid</t>
   </si>
   <si>
-    <t>First Degree</t>
+    <t>P_Default</t>
   </si>
   <si>
-    <t>x1,x2,x3…xn</t>
+    <t>Late</t>
   </si>
   <si>
-    <t>Second Degree</t>
-  </si>
-  <si>
-    <t>x1^2,x2^2…x1x2,x2x3…</t>
-  </si>
-  <si>
-    <t>Third degree</t>
-  </si>
-  <si>
-    <t>x1^3,x2^2,….x1x2x3,x2x3x4…</t>
-  </si>
-  <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>n2</t>
-  </si>
-  <si>
-    <t>n3</t>
-  </si>
-  <si>
-    <t>n1+n2+n3</t>
-  </si>
-  <si>
-    <t>Why?</t>
-  </si>
-  <si>
-    <t>How?</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>d&gt;n</t>
-  </si>
-  <si>
-    <t>It will reduce the number of columns in your data</t>
-  </si>
-  <si>
-    <t>Worse, as good as performing earlier</t>
-  </si>
-  <si>
-    <t>not (x1 AND x1)</t>
-  </si>
-  <si>
-    <t>not (x1 and x1)</t>
-  </si>
-  <si>
-    <t>not (x1)</t>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -185,7 +130,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +160,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -253,12 +213,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -298,7 +295,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4748,7 +4756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BF29-27DE-A84E-AD91-D7CC169E9269}">
   <dimension ref="B24:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" zoomScale="160" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -5018,164 +5026,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D45BB5-BBA6-A544-B6CB-DB87F9E40CA7}">
-  <dimension ref="C1:P19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="17">
-        <v>3</v>
-      </c>
-      <c r="M7" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F3301-0575-2B4D-9771-D8CCAF368F1A}">
   <dimension ref="A3:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -5210,11 +5077,11 @@
       </c>
       <c r="D4" s="10">
         <f>Q13</f>
-        <v>1674.8318710165856</v>
+        <v>1857.3212221999997</v>
       </c>
       <c r="E4" s="10">
         <f>(C4-D4)^2</f>
-        <v>2721945.2026220877</v>
+        <v>3357401.0613245009</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>2</v>
@@ -5317,11 +5184,11 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="P12" s="4">
-        <v>4.5064769</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="2">
         <f>Q10+P12*K6+P15*K19</f>
-        <v>1674.8318710165856</v>
+        <v>1857.3212221999997</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>1</v>
@@ -5331,7 +5198,7 @@
       <c r="H13" s="3"/>
       <c r="Q13" s="2">
         <f>Q12</f>
-        <v>1674.8318710165856</v>
+        <v>1857.3212221999997</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>3</v>
@@ -5394,14 +5261,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7193503-4A9B-F944-90C9-CFAFBDB828F5}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F4C1F1-6439-C14B-B895-624B8B890D5F}">
+  <dimension ref="B3:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>